--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -13,31 +13,23 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +88,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,43 +106,109 @@
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>0.013 s</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>FAILED &amp; SKIPPED TAGS</t>
   </si>
   <si>
     <t>TAG NAME</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -156,67 +217,52 @@
     <t>FEATURE</t>
   </si>
   <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>SCENARIOS</t>
-  </si>
-  <si>
     <t>PASS %</t>
   </si>
   <si>
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Sept 18, 2025 1:38:23 pm</t>
   </si>
   <si>
-    <t>Sept 04, 2025 10:31:15 am</t>
+    <t>Sept 18, 2025 1:38:18 pm</t>
   </si>
   <si>
-    <t>Sept 04, 2025 10:30:38 am</t>
+    <t>Sept 18, 2025 1:38:22 pm</t>
   </si>
   <si>
-    <t>Sept 04, 2025 10:31:13 am</t>
+    <t>3.196 s</t>
   </si>
   <si>
-    <t>35.530 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>@TC_UI_Zlaata_ADDP_11</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_COP_01 |Verify Bag Item Count Display|"TD_UI_Zlaata_COP_01"</t>
+    <t>address Page Feature</t>
   </si>
   <si>
-    <t>34.426 s</t>
+    <t>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</t>
   </si>
   <si>
-    <t>CheckOut Page Feature</t>
+    <t>2.736 s</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_COP_01</t>
+    <t>2.740 s</t>
   </si>
   <si>
-    <t>34.432 s</t>
+    <t>Given User opens the checkout page address</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -224,7 +270,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +281,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -284,9 +354,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +380,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +393,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -345,11 +426,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -374,6 +450,43 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -441,9 +554,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -471,173 +582,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,24 +772,30 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -714,10 +805,707 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$B$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$C$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46151168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46117248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46117248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46151168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>address Page Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$F$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>address Page Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$H$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>address Page Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$G$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46512000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46513536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46513536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46512000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
+          <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -759,7 +1547,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -784,7 +1572,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -809,7 +1597,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -839,12 +1627,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -880,7 +1674,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -906,15 +1700,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Devices</a:t>
+              <a:t>Authors</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -924,10 +1717,376 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -974,7 +2133,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -997,14 +2155,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1048,7 +2206,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1078,7 +2235,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1122,7 +2279,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1145,14 +2301,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1166,11 +2322,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +2336,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,7 +2344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +2362,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1214,14 +2370,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1275,12 +2430,745 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>address Page Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>address Page Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>address Page Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46193280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46193280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenarios</a:t>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1289,8 +3177,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1302,10 +3190,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1347,7 +3235,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1372,7 +3260,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1397,34 +3285,71 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
+                  <c:v>Features Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
+                  <c:v>Features Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
+                  <c:v>Features Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1432,7 +3357,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1468,7 +3393,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1488,16 +3413,16 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Steps</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1506,8 +3431,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1519,10 +3444,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1564,7 +3489,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1589,7 +3514,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1614,42 +3539,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
+                  <c:v>Scenarios Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
+                  <c:v>Scenarios Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
+                  <c:v>Scenarios Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1685,7 +3647,261 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1728,9 +3944,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
+          <c:x val="3.3278738246891114E-2"/>
           <c:y val="0.10500003204542271"/>
-          <c:w val="0.95333333333333337"/>
+          <c:w val="0.953375796178344"/>
           <c:h val="0.85236429602767994"/>
         </c:manualLayout>
       </c:layout>
@@ -1788,7 +4004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_COP_01 |Verify Bag Item Count Display|"TD_UI_Zlaata_COP_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1796,17 +4012,12 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$H$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1860,7 +4071,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_COP_01 |Verify Bag Item Count Display|"TD_UI_Zlaata_COP_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1873,7 +4084,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1927,7 +4138,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_COP_01 |Verify Bag Item Count Display|"TD_UI_Zlaata_COP_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1935,12 +4146,17 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$I$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1954,11 +4170,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97185152"/>
+        <c:axId val="89325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +4184,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
+        <c:crossAx val="44310528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1976,7 +4192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97201536"/>
+        <c:axId val="44310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +4224,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
+        <c:crossAx val="89325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2037,7 +4253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2103,7 +4319,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2128,7 +4344,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2153,7 +4369,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2181,14 +4397,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2229,7 +4451,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2255,7 +4477,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Tags</a:t>
@@ -2263,7 +4485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2273,10 +4494,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2323,7 +4544,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2334,7 +4554,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_COP_01</c:v>
+                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2342,17 +4562,12 @@
           <c:val>
             <c:numRef>
               <c:f>Tags!$D$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2396,7 +4611,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2407,7 +4621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_COP_01</c:v>
+                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2420,7 +4634,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2464,7 +4678,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2475,7 +4688,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_COP_01</c:v>
+                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2483,12 +4696,17 @@
           <c:val>
             <c:numRef>
               <c:f>Tags!$E$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2502,11 +4720,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +4734,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2524,365 +4742,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Features</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CheckOut Page Feature</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CheckOut Page Feature</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$H$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CheckOut Page Feature</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$G$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97540352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97550336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2912,566 +4774,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3310417416097107E-2"/>
-          <c:y val="0.17399131020088515"/>
-          <c:w val="0.93298799578986624"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Authors</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3506,672 +4809,1681 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175"/>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="133349"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="lt1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>0.253 s</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4182,22 +6494,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4323,7 +6635,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4331,7 +6643,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4349,22 +6661,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4490,17 +6802,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4516,22 +6828,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4657,7 +6969,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4665,7 +6977,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4690,16 +7002,14 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4748,15 +7058,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4765,8 +7075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4801,6 +7111,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4810,13 +7142,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>85503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -4825,7 +7157,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="219075"/>
+          <a:off x="971550" y="200025"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4855,7 +7187,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -4863,11 +7195,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="404284"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4882,22 +7354,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68844</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5023,17 +7495,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5052,20 +7524,18 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5087,22 +7557,20 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5153,13 +7621,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5168,8 +7636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5204,6 +7672,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5213,22 +7703,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5258,19 +7748,156 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:srgbClr val="27F959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
-              <a:srgbClr val="51FF21"/>
+              <a:srgbClr val="27F959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="413808"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="599019"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5285,22 +7912,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5426,17 +8053,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5446,29 +8073,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Exceptions"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5758,7 +8362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B19:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5772,8 +8376,102 @@
     <col min="6" max="6" customWidth="true" width="70.7109375"/>
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="true" password="C131" scenarios="true" objects="true"/>
+  <sheetData>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="60" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="49"/>
+      <c r="G62" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="CD3D" scenarios="true" objects="true"/>
+  <mergeCells count="8">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5782,6 +8480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5792,90 +8491,90 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.42578125"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="2" max="2" customWidth="true" width="50.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875"/>
     <col min="7" max="10" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H22" s="58" t="n">
+      <c r="H22" s="55"/>
+      <c r="I22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="J22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5885,6 +8584,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B20:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5895,92 +8595,93 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.28515625"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375"/>
     <col min="3" max="7" customWidth="true" width="12.7109375"/>
     <col min="8" max="8" customWidth="true" width="60.7109375"/>
     <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s" s="54">
-        <v>58</v>
-      </c>
-      <c r="C22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="58" t="n">
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>54</v>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="36" t="s">
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="35" t="s">
-        <v>22</v>
+      <c r="I26" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>29</v>
+      <c r="B27" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5998,6 +8699,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -6011,107 +8713,106 @@
     <col min="2" max="2" customWidth="true" width="60.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
-    <col min="5" max="11" customWidth="true" width="9.7109375"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375"/>
+    <col min="5" max="13" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="H21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="58" t="n">
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="57" t="n">
+      <c r="H22" s="57"/>
+      <c r="I22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="K22" s="58" t="n">
+      <c r="K22" s="55"/>
+      <c r="L22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
+      <c r="M22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6119,14 +8820,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.7109375"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375"/>
+    <col min="4" max="4" customWidth="true" width="45.7109375"/>
+    <col min="5" max="5" customWidth="true" width="75.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="F417" scenarios="true" objects="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6135,7 +8886,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.42578125"/>
@@ -6163,93 +8914,90 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <f>SUM(F2:F4)</f>
         <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <f>SUM(H2:H4)</f>
         <v>1.0</v>
       </c>
     </row>
@@ -6258,32 +9006,116 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="49">
+        <v>71</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="H20" t="s" s="49">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="P20" t="s" s="49">
+        <v>73</v>
+      </c>
+      <c r="Q20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,16 +189,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Sept 18, 2025 4:32:33 pm</t>
+    <t>Sept 18, 2025 4:44:22 pm</t>
   </si>
   <si>
-    <t>Sept 18, 2025 4:31:23 pm</t>
+    <t>Sept 18, 2025 4:43:12 pm</t>
   </si>
   <si>
-    <t>Sept 18, 2025 4:32:31 pm</t>
+    <t>Sept 18, 2025 4:44:21 pm</t>
   </si>
   <si>
-    <t>1 m 8.634 s</t>
+    <t>1 m 8.228 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -207,7 +207,7 @@
     <t>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</t>
   </si>
   <si>
-    <t>1 m 8.155 s</t>
+    <t>1 m 7.755 s</t>
   </si>
   <si>
     <t>address Page Feature</t>
@@ -216,7 +216,7 @@
     <t>@TC_UI_Zlaata_ADDP_11</t>
   </si>
   <si>
-    <t>1 m 8.159 s</t>
+    <t>1 m 7.763 s</t>
   </si>
 </sst>
 </file>
@@ -5773,7 +5773,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="F621" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="FF49" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,34 +189,34 @@
     <t>device</t>
   </si>
   <si>
-    <t>Sept 18, 2025 4:44:22 pm</t>
+    <t>Sept 18, 2025 5:10:13 pm</t>
   </si>
   <si>
-    <t>Sept 18, 2025 4:43:12 pm</t>
+    <t>Sept 18, 2025 5:09:50 pm</t>
   </si>
   <si>
-    <t>Sept 18, 2025 4:44:21 pm</t>
+    <t>Sept 18, 2025 5:10:12 pm</t>
   </si>
   <si>
-    <t>1 m 8.228 s</t>
+    <t>22.088 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</t>
+    <t>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</t>
   </si>
   <si>
-    <t>1 m 7.755 s</t>
+    <t>21.634 s</t>
   </si>
   <si>
-    <t>address Page Feature</t>
+    <t>CheckOut Page Feature</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADDP_11</t>
+    <t>@TC_UI_Zlaata_COP_14</t>
   </si>
   <si>
-    <t>1 m 7.763 s</t>
+    <t>21.639 s</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1860,7 +1860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1927,7 +1927,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADDP_11 | Verify that while opening address page having phone number on checkout Page Address | "TD_UI_Zlaata_ADDP_11"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2334,7 +2334,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2407,7 +2407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2475,7 +2475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADDP_11</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2691,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>address Page Feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2763,7 +2763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>address Page Feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2830,7 +2830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>address Page Feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5773,7 +5773,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="FF49" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="E583" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
